--- a/data-input/wtid-data/updates/Switzerland_2018_05_21.xlsx
+++ b/data-input/wtid-data/updates/Switzerland_2018_05_21.xlsx
@@ -1476,11 +1476,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124827752"/>
-        <c:axId val="124826576"/>
+        <c:axId val="476024824"/>
+        <c:axId val="518818112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124827752"/>
+        <c:axId val="476024824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,12 +1537,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124826576"/>
+        <c:crossAx val="518818112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124826576"/>
+        <c:axId val="518818112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,7 +1599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124827752"/>
+        <c:crossAx val="476024824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2063,11 +2063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472727584"/>
-        <c:axId val="472732680"/>
+        <c:axId val="518819680"/>
+        <c:axId val="518820072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472727584"/>
+        <c:axId val="518819680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,12 +2124,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472732680"/>
+        <c:crossAx val="518820072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472732680"/>
+        <c:axId val="518820072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.17"/>
@@ -2187,7 +2187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472727584"/>
+        <c:crossAx val="518819680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2651,11 +2651,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="477740224"/>
-        <c:axId val="477743360"/>
+        <c:axId val="518821248"/>
+        <c:axId val="518821640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="477740224"/>
+        <c:axId val="518821248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2712,12 +2712,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477743360"/>
+        <c:crossAx val="518821640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477743360"/>
+        <c:axId val="518821640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.000000000000001E-2"/>
@@ -2775,7 +2775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477740224"/>
+        <c:crossAx val="518821248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3239,11 +3239,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="477742184"/>
-        <c:axId val="477737480"/>
+        <c:axId val="518818896"/>
+        <c:axId val="518819288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="477742184"/>
+        <c:axId val="518818896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3300,12 +3300,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477737480"/>
+        <c:crossAx val="518819288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477737480"/>
+        <c:axId val="518819288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.000000000000001E-2"/>
@@ -3363,7 +3363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477742184"/>
+        <c:crossAx val="518818896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3827,11 +3827,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="477742576"/>
-        <c:axId val="477738264"/>
+        <c:axId val="478668896"/>
+        <c:axId val="478671248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="477742576"/>
+        <c:axId val="478668896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,12 +3888,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477738264"/>
+        <c:crossAx val="478671248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477738264"/>
+        <c:axId val="478671248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.0000000000000004E-2"/>
@@ -3951,7 +3951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477742576"/>
+        <c:crossAx val="478668896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4415,11 +4415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="477738656"/>
-        <c:axId val="477739048"/>
+        <c:axId val="478670856"/>
+        <c:axId val="478667720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="477738656"/>
+        <c:axId val="478670856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4476,12 +4476,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477739048"/>
+        <c:crossAx val="478667720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477739048"/>
+        <c:axId val="478667720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4539,7 +4539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477738656"/>
+        <c:crossAx val="478670856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7944,7 +7944,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C40E2BF-3609-5741-841E-E2716D30192F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C40E2BF-3609-5741-841E-E2716D30192F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7980,7 +7980,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D474724D-223E-1E4C-95EE-F35698347E95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D474724D-223E-1E4C-95EE-F35698347E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8018,7 +8018,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA42D6E-3E5F-8145-B50B-C9021CDE65EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCA42D6E-3E5F-8145-B50B-C9021CDE65EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8056,7 +8056,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECD9563-57B3-5341-B0B3-CD7D072FB164}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5ECD9563-57B3-5341-B0B3-CD7D072FB164}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8094,7 +8094,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0197B1-62B7-B140-8F02-5865E8A35B9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B0197B1-62B7-B140-8F02-5865E8A35B9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8132,7 +8132,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABAFE09D-8007-C74A-AABD-4EFC301804F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABAFE09D-8007-C74A-AABD-4EFC301804F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8455,8 +8455,8 @@
   <dimension ref="A1:EM130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="14" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CX111" sqref="CX111:CY130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17425,7 +17425,7 @@
         <v>218085.296875</v>
       </c>
       <c r="CW111">
-        <v>0.88421285800000005</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="CX111">
         <v>66470.032730000006</v>
@@ -17531,7 +17531,7 @@
         <v>222852.625</v>
       </c>
       <c r="CW112">
-        <v>0.891389659</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="CX112">
         <v>64245.545149999998</v>
@@ -17637,7 +17637,7 @@
         <v>227619.96875</v>
       </c>
       <c r="CW113">
-        <v>0.896026608</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="CX113">
         <v>65238.556850000001</v>
@@ -17743,7 +17743,7 @@
         <v>232387.296875</v>
       </c>
       <c r="CW114">
-        <v>0.89618749499999995</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="CX114">
         <v>65890.769079999998</v>
@@ -17849,7 +17849,7 @@
         <v>237154.625</v>
       </c>
       <c r="CW115">
-        <v>0.90341483</v>
+        <v>0.90099999999999991</v>
       </c>
       <c r="CX115">
         <v>66099.59375</v>
@@ -17955,7 +17955,7 @@
         <v>241921.96875</v>
       </c>
       <c r="CW116">
-        <v>0.9174947</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="CX116">
         <v>65817.500530000005</v>
@@ -18061,7 +18061,7 @@
         <v>246689.296875</v>
       </c>
       <c r="CW117">
-        <v>0.92656894599999995</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="CX117">
         <v>65662.388909999994</v>
@@ -18167,7 +18167,7 @@
         <v>251456.640625</v>
       </c>
       <c r="CW118">
-        <v>0.93252391599999995</v>
+        <v>0.93</v>
       </c>
       <c r="CX118">
         <v>65726.282380000004</v>
@@ -18273,7 +18273,7 @@
         <v>0.25622394680979999</v>
       </c>
       <c r="CW119">
-        <v>0.93847639500000002</v>
+        <v>0.93599999999999994</v>
       </c>
       <c r="CX119">
         <v>65906.874290000007</v>
@@ -18377,7 +18377,7 @@
         <v>0.26088276505469998</v>
       </c>
       <c r="CW120">
-        <v>0.94601115000000002</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="CX120">
         <v>65561.359670000005</v>
@@ -18481,7 +18481,7 @@
         <v>0.26504334807399998</v>
       </c>
       <c r="CW121">
-        <v>0.95709807899999999</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="CX121">
         <v>65280.352870000002</v>
@@ -18585,7 +18585,7 @@
         <v>0.27275383472440001</v>
       </c>
       <c r="CW122">
-        <v>0.96723853299999996</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="CX122">
         <v>65271.413009999997</v>
@@ -18689,7 +18689,7 @@
         <v>0.28769025206569998</v>
       </c>
       <c r="CW123">
-        <v>0.97432201600000001</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="CX123">
         <v>67526.537270000001</v>
@@ -18793,7 +18793,7 @@
         <v>0.29911363124849999</v>
       </c>
       <c r="CW124">
-        <v>0.99795946700000004</v>
+        <v>0.995</v>
       </c>
       <c r="CX124">
         <v>66764.847399999999</v>
@@ -18897,7 +18897,7 @@
         <v>0.30350133776659999</v>
       </c>
       <c r="CW125">
-        <v>0.99643594400000002</v>
+        <v>0.99</v>
       </c>
       <c r="CX125">
         <v>67132.921700000006</v>
@@ -19001,7 +19001,7 @@
         <v>0.30975037813189998</v>
       </c>
       <c r="CW126">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="CX126">
         <v>67055.799599999998</v>
@@ -19104,6 +19104,9 @@
       <c r="CU127">
         <v>0.3188367486</v>
       </c>
+      <c r="CW127">
+        <v>1</v>
+      </c>
       <c r="DA127">
         <v>233544.125</v>
       </c>
@@ -19196,6 +19199,9 @@
       <c r="CU128">
         <v>0.31835493445399998</v>
       </c>
+      <c r="CW128">
+        <v>0.99299999999999999</v>
+      </c>
       <c r="DA128">
         <v>222926.234375</v>
       </c>
@@ -19288,6 +19294,9 @@
       <c r="CU129">
         <v>0.32548755407329999</v>
       </c>
+      <c r="CW129">
+        <v>0.99099999999999999</v>
+      </c>
       <c r="DA129">
         <v>225811.84375</v>
       </c>
@@ -19379,6 +19388,9 @@
       </c>
       <c r="CU130">
         <v>0.33473494648930002</v>
+      </c>
+      <c r="CW130">
+        <v>0.99</v>
       </c>
       <c r="DA130">
         <v>232908.65625</v>
@@ -19432,8 +19444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:BI93"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W74" sqref="W74:X93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
